--- a/doc/盛达/0313/3.13装托清单_001.xlsx
+++ b/doc/盛达/0313/3.13装托清单_001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\monolith\workspace\python\invoiceAnalysis\doc\盛达\0313\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616AFA14-552A-4541-B8E3-BCD90A47BDBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862EA751-91F1-49A3-BDBD-67830EBBF2D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -683,7 +683,7 @@
   <dimension ref="A1:BK8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A2" sqref="A2:AI8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
